--- a/GStreamer_MFC_Dlg/개발 문서.xlsx
+++ b/GStreamer_MFC_Dlg/개발 문서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDY\source\MFC2017\GStreamer_MFC_Dlg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDY\source\CurrentProject\GStreamer_MFC_Dlg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5BDF76B-7310-4725-892D-2C8DDC302436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB951B8-F097-4C49-B0D8-D6D21B927D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{CD268BE5-ED2D-40A1-9857-D3D81AE522F1}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2 (2)" sheetId="4" r:id="rId3"/>
     <sheet name="테스트" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="164">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -411,6 +411,277 @@
   </si>
   <si>
     <t>DB Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message Info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send ID length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send ID(가)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Messsge Info Length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message Length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message(가)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message Info + Message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 전송 수신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드 요청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Name Length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Name(가)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data(가)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message Info + Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장자 명(가) #1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>확장자 명(가) #2….</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드 같은 경우엔 블록 단위로 파일을 쪼개서 보내야한다. 고로, 얼마만큼(MTU) 블록을 나눌 것이며, 서버에서 어떻게 이것을 받을 것인지 정해야한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드 블록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Size (최초만)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드 헤드 블록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만약 헤더의 크기가 MTU 최대값인 1500이 넘어가는 경우에 이렇게 보내야 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>header Data(가)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Messge Info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message Info + File Info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Data Length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cstring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 저장 자료구조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Write Size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ID"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter Value</t>
+  </si>
+  <si>
+    <t>ID(가변 + 00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"PASSWORD"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD (HASH)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encrypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encrypt는 어떤 방식의 HASH 변환을 실시할 지에 대한 타입이다. "1" =&gt; md5, "2" =&gt; SHA-256 (&lt;- 추후 추가시 숫자 증감..)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +689,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,6 +867,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,9 +883,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,6 +890,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,17 +1214,17 @@
   <dimension ref="B3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="8" width="40.69921875" customWidth="1"/>
     <col min="9" max="12" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -955,7 +1235,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -969,7 +1249,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -977,7 +1257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>10</v>
       </c>
@@ -985,7 +1265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -993,7 +1273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1287,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>14</v>
       </c>
@@ -1015,7 +1295,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>56</v>
       </c>
@@ -1026,7 +1306,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>58</v>
       </c>
@@ -1034,7 +1314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1042,12 +1322,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -1060,18 +1340,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D9499B-E625-4A32-AE75-06B71D45E82A}">
-  <dimension ref="B2:Z43"/>
+  <dimension ref="B2:AS55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1079,12 +1359,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
@@ -1097,174 +1377,176 @@
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="19"/>
+      <c r="D6" s="16"/>
       <c r="E6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:20" s="6" customFormat="1">
+    <row r="7" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="6" customFormat="1">
+    <row r="10" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="2:20">
-      <c r="B13" s="22" t="s">
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B13" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19" t="s">
+      <c r="M13" s="16"/>
+      <c r="N13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="22"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="B14" s="23"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19" t="s">
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="19"/>
-    </row>
-    <row r="15" spans="2:20" s="6" customFormat="1">
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1272,770 +1554,1239 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="1"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P16" s="16"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="2:26">
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="24"/>
+    </row>
+    <row r="18" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="19" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19" t="s">
+      <c r="I20" s="16"/>
+      <c r="J20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19" t="s">
+      <c r="K20" s="16"/>
+      <c r="L20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19" t="s">
+      <c r="M20" s="16"/>
+      <c r="N20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O17" s="19"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="2:26">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="2:26" s="6" customFormat="1">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="2:26">
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
+      <c r="O20" s="16"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:26">
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="2:26">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="19"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="2:26" s="6" customFormat="1">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24" spans="2:26">
-      <c r="B24" s="10" t="s">
-        <v>65</v>
+    <row r="22" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B24" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="P24" s="16"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="2:26">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19" t="s">
+      <c r="I27" s="16"/>
+      <c r="J27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19" t="s">
+      <c r="K27" s="16"/>
+      <c r="L27" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19" t="s">
+      <c r="M27" s="16"/>
+      <c r="N27" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="2:26" s="6" customFormat="1">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-    </row>
-    <row r="27" spans="2:26">
-      <c r="B27" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="O27" s="16"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="2:26">
-      <c r="B28" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="2:26">
-      <c r="B29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+    <row r="28" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B29" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="2:26" s="6" customFormat="1">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-    </row>
-    <row r="31" spans="2:26">
-      <c r="B31" s="10" t="s">
+    <row r="30" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D33" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="16" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="16" t="s">
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="18"/>
-    </row>
-    <row r="32" spans="2:26">
-      <c r="B32" s="2" t="s">
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="20"/>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D34" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21" t="s">
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="14" t="s">
+      <c r="I34" s="22"/>
+      <c r="J34" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K34" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="15" t="s">
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="P32" s="15" t="s">
+      <c r="P34" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="R32" s="16" t="s">
+      <c r="R34" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="S32" s="18"/>
-      <c r="T32" s="16" t="s">
+      <c r="S34" s="20"/>
+      <c r="T34" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="15" t="s">
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Y32" s="15" t="s">
+      <c r="Y34" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="Z32" s="15"/>
-    </row>
-    <row r="33" spans="2:20" s="6" customFormat="1">
-      <c r="B33" s="11"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-    </row>
-    <row r="34" spans="2:20">
-      <c r="B34" s="2" t="s">
+      <c r="Z34" s="15"/>
+    </row>
+    <row r="35" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="11"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D36" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19" t="s">
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19" t="s">
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-    </row>
-    <row r="35" spans="2:20">
-      <c r="B35" s="2" t="s">
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D37" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="19" t="s">
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19" t="s">
+      <c r="I37" s="16"/>
+      <c r="J37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19" t="s">
+      <c r="K37" s="16"/>
+      <c r="L37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19" t="s">
+      <c r="M37" s="16"/>
+      <c r="N37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="2:20" s="6" customFormat="1">
-      <c r="B36" s="11"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-    </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="O37" s="16"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-    </row>
-    <row r="39" spans="2:20">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="2:20">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="2:20">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+    <row r="38" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="11"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B39" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N40" s="16"/>
+      <c r="O40" t="s">
+        <v>100</v>
+      </c>
+      <c r="P40" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B41" s="2"/>
+      <c r="C41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-    </row>
-    <row r="42" spans="2:20">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="2:20">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="T41" s="7"/>
+    </row>
+    <row r="42" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B43" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B44" s="10"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N45" s="16"/>
+      <c r="O45" t="s">
+        <v>100</v>
+      </c>
+      <c r="P45" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>117</v>
+      </c>
+      <c r="R45" t="s">
+        <v>118</v>
+      </c>
+      <c r="S45" t="s">
+        <v>119</v>
+      </c>
+      <c r="T45" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="U45" s="16"/>
+      <c r="V45" t="s">
+        <v>111</v>
+      </c>
+      <c r="W45" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="H49" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N49" s="16"/>
+      <c r="O49" t="s">
+        <v>100</v>
+      </c>
+      <c r="P49" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q49" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="C50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="H53" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N53" s="16"/>
+      <c r="O53" t="s">
+        <v>100</v>
+      </c>
+      <c r="P53" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>130</v>
+      </c>
+      <c r="R53" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="S53" s="16"/>
+      <c r="T53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="C54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="D16:G16"/>
+  <mergeCells count="99">
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="D19:G19"/>
     <mergeCell ref="L13:M14"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="H13:I14"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="H33:Q33"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="H9:K9"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="H31:Q31"/>
-    <mergeCell ref="R31:Z31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="R33:Z33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="H39:O39"/>
+    <mergeCell ref="P40:S40"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="B47:P47"/>
+    <mergeCell ref="H43:V43"/>
+    <mergeCell ref="W43:AE43"/>
+    <mergeCell ref="W45:AD45"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="H44:P44"/>
+    <mergeCell ref="Q44:V44"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="H48:P48"/>
+    <mergeCell ref="Q48:Y48"/>
+    <mergeCell ref="Q49:X49"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B55:T55"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="H52:Q52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2050,12 +2801,12 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -2063,83 +2814,83 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-    </row>
-    <row r="5" spans="2:20">
-      <c r="B5" s="22" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="19"/>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="22"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="23"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="19"/>
-    </row>
-    <row r="7" spans="2:20">
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2160,7 +2911,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,7 +2938,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9">
         <v>1</v>
@@ -2212,7 +2963,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="D10" s="7" t="s">
         <v>39</v>
@@ -2234,7 +2985,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11">
         <v>2</v>
@@ -2259,7 +3010,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="D12" s="7" t="s">
         <v>44</v>
@@ -2281,7 +3032,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="D13" s="9" t="s">
         <v>43</v>
@@ -2303,7 +3054,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
@@ -2326,7 +3077,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>3</v>
@@ -2351,7 +3102,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="7" t="s">
@@ -2374,7 +3125,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="7" t="s">
@@ -2397,7 +3148,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2418,7 +3169,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>49</v>
@@ -2443,7 +3194,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="1">
         <v>1</v>
@@ -2468,7 +3219,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7" t="s">
@@ -2491,7 +3242,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>2</v>
@@ -2516,17 +3267,17 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="D23" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="D24" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
       <c r="D25" s="7" t="s">
         <v>52</v>
       </c>
@@ -2558,17 +3309,17 @@
   <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="8" width="40.69921875" customWidth="1"/>
     <col min="9" max="12" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2582,7 +3333,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -2596,7 +3347,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -2607,7 +3358,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E6" t="s">
         <v>82</v>
       </c>
@@ -2615,7 +3366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
         <v>83</v>
       </c>
@@ -2623,7 +3374,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -2634,7 +3385,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -2642,7 +3393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -2653,12 +3404,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>56</v>
       </c>
@@ -2666,12 +3417,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -2679,19 +3430,142 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EAD765-AEE2-4E37-B32B-7758E5D67D3B}">
+  <dimension ref="A3:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="10" width="15.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/GStreamer_MFC_Dlg/개발 문서.xlsx
+++ b/GStreamer_MFC_Dlg/개발 문서.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDY\source\CurrentProject\GStreamer_MFC_Dlg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDY\source\MFC2017\GStreamer_MFC_Dlg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB951B8-F097-4C49-B0D8-D6D21B927D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AA2025-C6E9-49B9-BE92-CF05BD4CBF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{CD268BE5-ED2D-40A1-9857-D3D81AE522F1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CD268BE5-ED2D-40A1-9857-D3D81AE522F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2 (2)" sheetId="4" r:id="rId3"/>
     <sheet name="테스트" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="107">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -414,6 +413,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>채팅 전송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -451,237 +454,6 @@
   </si>
   <si>
     <t>Message Info + Message</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅 전송 수신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 업로드 요청</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>File Name Length</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>File Name(가)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data(가)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Message Info + Data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>File Count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>확장자 명(가) #1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>확장자 명(가) #2….</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 업로드 같은 경우엔 블록 단위로 파일을 쪼개서 보내야한다. 고로, 얼마만큼(MTU) 블록을 나눌 것이며, 서버에서 어떻게 이것을 받을 것인지 정해야한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block Count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 업로드 블록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Size (최초만)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 업로드 헤드 블록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">만약 헤더의 크기가 MTU 최대값인 1500이 넘어가는 경우에 이렇게 보내야 한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block Number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>length</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Header Data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>header Data(가)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Messge Info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Message Info + File Info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>File Info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Send ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Header</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>File Info</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total Data Length</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cstring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CString</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>byte</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 저장 자료구조</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>check done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>char*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current Write Size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ID"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parameter Value</t>
-  </si>
-  <si>
-    <t>ID(가변 + 00)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"PASSWORD"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD (HASH)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encrypt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encrypt는 어떤 방식의 HASH 변환을 실시할 지에 대한 타입이다. "1" =&gt; md5, "2" =&gt; SHA-256 (&lt;- 추후 추가시 숫자 증감..)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +461,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,8 +642,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -883,19 +661,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,17 +980,17 @@
   <dimension ref="B3:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="8" width="40.69921875" customWidth="1"/>
     <col min="9" max="12" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1235,7 +1001,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1249,7 +1015,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -1257,7 +1023,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5">
       <c r="C6" t="s">
         <v>10</v>
       </c>
@@ -1265,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -1273,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1053,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5">
       <c r="D9" t="s">
         <v>14</v>
       </c>
@@ -1295,7 +1061,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5">
       <c r="C10" t="s">
         <v>56</v>
       </c>
@@ -1306,7 +1072,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5">
       <c r="D11" t="s">
         <v>58</v>
       </c>
@@ -1314,7 +1080,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -1322,12 +1088,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -1340,18 +1106,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D9499B-E625-4A32-AE75-06B71D45E82A}">
-  <dimension ref="B2:AS55"/>
+  <dimension ref="B2:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1359,12 +1125,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:20">
       <c r="B3" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20">
       <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
@@ -1377,7 +1143,7 @@
       <c r="F4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:20">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1391,7 +1157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:20">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="16"/>
@@ -1399,12 +1165,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20" s="6" customFormat="1">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20">
       <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
@@ -1427,7 +1193,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20">
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1450,19 +1216,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20" s="6" customFormat="1">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20">
       <c r="B11" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1488,19 +1254,19 @@
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B13" s="23" t="s">
+    <row r="13" spans="2:20">
+      <c r="B13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="16" t="s">
         <v>27</v>
       </c>
@@ -1518,8 +1284,8 @@
       </c>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B14" s="23"/>
+    <row r="14" spans="2:20">
+      <c r="B14" s="18"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1538,15 +1304,13 @@
       </c>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20" s="6" customFormat="1">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1554,9 +1318,9 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20">
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
@@ -1567,168 +1331,127 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>20</v>
       </c>
+      <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="16"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="P16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="2:26">
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="P17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="24"/>
-    </row>
-    <row r="18" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="2:26">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="2:26" s="6" customFormat="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="2:26">
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="I20" s="16"/>
-      <c r="J20" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M20" s="16"/>
-      <c r="N20" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1736,1057 +1459,664 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B21" s="2"/>
+    <row r="21" spans="2:26">
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="16"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="22" spans="2:26">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="2:26" s="6" customFormat="1">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="2:26">
+      <c r="B24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="16" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="1">
-        <v>2</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>157</v>
-      </c>
+      <c r="I24" s="16"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16" t="s">
-        <v>160</v>
-      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="16"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="P24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-    </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B27" s="2" t="s">
+    <row r="25" spans="2:26">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D25" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="16" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16" t="s">
+      <c r="I25" s="16"/>
+      <c r="J25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16" t="s">
+      <c r="K25" s="16"/>
+      <c r="L25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16" t="s">
+      <c r="M25" s="16"/>
+      <c r="N25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="2:26" s="6" customFormat="1">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="2:26">
+      <c r="B27" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B29" s="13" t="s">
-        <v>60</v>
-      </c>
+    <row r="28" spans="2:26">
+      <c r="B28" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="2:26">
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="1" t="s">
+    <row r="30" spans="2:26" s="6" customFormat="1">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="2:26">
+      <c r="B31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="22"/>
+    </row>
+    <row r="32" spans="2:26">
+      <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="2:45" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="R32" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="S32" s="22"/>
+      <c r="T32" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y32" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z32" s="15"/>
+    </row>
+    <row r="33" spans="2:20" s="6" customFormat="1">
+      <c r="B33" s="11"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="20"/>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B34" s="2" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="B35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="21" t="s">
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="P34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R34" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="S34" s="20"/>
-      <c r="T34" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y34" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z34" s="15"/>
-    </row>
-    <row r="35" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="11"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="16" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="16"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="2:20" s="6" customFormat="1">
+      <c r="B36" s="11"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B37" s="2" t="s">
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O37" s="16"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-    </row>
-    <row r="38" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="11"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B39" s="10" t="s">
+      <c r="C38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16" t="s">
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="21" t="s">
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="N38" s="16"/>
+      <c r="O38" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="P38" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N40" s="16"/>
-      <c r="O40" t="s">
-        <v>100</v>
-      </c>
-      <c r="P40" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B41" s="2"/>
-      <c r="C41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="7"/>
-    </row>
-    <row r="42" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B43" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="X43" s="16"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="16"/>
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="16"/>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B44" s="10"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M45" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N45" s="16"/>
-      <c r="O45" t="s">
-        <v>100</v>
-      </c>
-      <c r="P45" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>117</v>
-      </c>
-      <c r="R45" t="s">
-        <v>118</v>
-      </c>
-      <c r="S45" t="s">
-        <v>119</v>
-      </c>
-      <c r="T45" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="U45" s="16"/>
-      <c r="V45" t="s">
-        <v>111</v>
-      </c>
-      <c r="W45" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="X45" s="16"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="16"/>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="16"/>
-      <c r="AE45" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.4">
-      <c r="B48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-      <c r="Y48" s="16"/>
-    </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="H49" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N49" s="16"/>
-      <c r="O49" t="s">
-        <v>100</v>
-      </c>
-      <c r="P49" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q49" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-      <c r="Y49" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="C50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="2:25" s="6" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-    </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="H53" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="N53" s="16"/>
-      <c r="O53" t="s">
-        <v>100</v>
-      </c>
-      <c r="P53" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>130</v>
-      </c>
-      <c r="R53" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="S53" s="16"/>
-      <c r="T53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="C54" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="2:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
+  <mergeCells count="65">
+    <mergeCell ref="R31:Z31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:W32"/>
     <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="P38:S38"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="H31:Q31"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="D16:G16"/>
     <mergeCell ref="L13:M14"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="H33:Q33"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="R33:Z33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="H39:O39"/>
-    <mergeCell ref="P40:S40"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D33:G33"/>
     <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="B47:P47"/>
-    <mergeCell ref="H43:V43"/>
-    <mergeCell ref="W43:AE43"/>
-    <mergeCell ref="W45:AD45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="H44:P44"/>
-    <mergeCell ref="Q44:V44"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="H48:P48"/>
-    <mergeCell ref="Q48:Y48"/>
-    <mergeCell ref="Q49:X49"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B55:T55"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="H52:Q52"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2801,12 +2131,12 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:20">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -2814,7 +2144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20">
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2840,8 +2170,8 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="2:20">
+      <c r="B5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2870,8 +2200,8 @@
       </c>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B6" s="23"/>
+    <row r="6" spans="2:20">
+      <c r="B6" s="18"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2890,7 +2220,7 @@
       </c>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:20">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2911,7 +2241,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20">
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
@@ -2938,7 +2268,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:20">
       <c r="B9" s="1"/>
       <c r="C9">
         <v>1</v>
@@ -2963,7 +2293,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:20">
       <c r="B10" s="1"/>
       <c r="D10" s="7" t="s">
         <v>39</v>
@@ -2985,7 +2315,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20">
       <c r="B11" s="1"/>
       <c r="C11">
         <v>2</v>
@@ -3010,7 +2340,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20">
       <c r="B12" s="1"/>
       <c r="D12" s="7" t="s">
         <v>44</v>
@@ -3032,7 +2362,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:20">
       <c r="B13" s="1"/>
       <c r="D13" s="9" t="s">
         <v>43</v>
@@ -3054,7 +2384,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:20">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
@@ -3077,7 +2407,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:20">
       <c r="B15" s="1"/>
       <c r="C15" s="1">
         <v>3</v>
@@ -3102,7 +2432,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:20">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="7" t="s">
@@ -3125,7 +2455,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:20">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="7" t="s">
@@ -3148,7 +2478,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:20">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3169,7 +2499,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:20">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>49</v>
@@ -3194,7 +2524,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:20">
       <c r="B20" s="1"/>
       <c r="C20" s="1">
         <v>1</v>
@@ -3219,7 +2549,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:20">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="7" t="s">
@@ -3242,7 +2572,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:20">
       <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>2</v>
@@ -3267,17 +2597,17 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:20">
       <c r="D23" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:20">
       <c r="D24" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:20">
       <c r="D25" s="7" t="s">
         <v>52</v>
       </c>
@@ -3309,17 +2639,17 @@
   <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="8" width="40.69921875" customWidth="1"/>
     <col min="9" max="12" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -3333,7 +2663,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -3347,7 +2677,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -3358,7 +2688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6">
       <c r="E6" t="s">
         <v>82</v>
       </c>
@@ -3366,7 +2696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6">
       <c r="E7" t="s">
         <v>83</v>
       </c>
@@ -3374,7 +2704,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -3385,7 +2715,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3393,7 +2723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -3404,12 +2734,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6">
       <c r="D11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6">
       <c r="C12" t="s">
         <v>56</v>
       </c>
@@ -3417,12 +2747,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6">
       <c r="D13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -3430,142 +2760,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EAD765-AEE2-4E37-B32B-7758E5D67D3B}">
-  <dimension ref="A3:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="10" width="15.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
